--- a/data sources.xlsx
+++ b/data sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E266BA-69BD-9546-BC1C-7C93347813DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3B01BF-98FE-CF4D-90C7-5B6BBD9D551E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="16260" xr2:uid="{DD058FC8-4C87-F249-980D-CB715E10A09C}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16260" xr2:uid="{DD058FC8-4C87-F249-980D-CB715E10A09C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={2A5FC089-E3C1-4445-80A0-DBAE3134CA3D}</author>
-    <author>tc={73CF9114-5B4D-5A42-B321-0365E5C573F2}</author>
   </authors>
   <commentList>
     <comment ref="F3" authorId="0" shapeId="0" xr:uid="{2A5FC089-E3C1-4445-80A0-DBAE3134CA3D}">
@@ -50,20 +49,12 @@
     Didn’t see anything on BP website about data sharing but then discovered this on the new site they migrated the data to</t>
       </text>
     </comment>
-    <comment ref="A9" authorId="1" shapeId="0" xr:uid="{73CF9114-5B4D-5A42-B321-0365E5C573F2}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Data from Cameron - confirm proper citation, link, data sharing permissions</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="174">
   <si>
     <t>Short Name</t>
   </si>
@@ -80,9 +71,6 @@
     <t>FAOSTAT</t>
   </si>
   <si>
-    <t>FAOSTAT 2022; League of Nations</t>
-  </si>
-  <si>
     <t>IRENA</t>
   </si>
   <si>
@@ -116,9 +104,6 @@
     <t>UIC</t>
   </si>
   <si>
-    <t>UN Industrial Statistics Database</t>
-  </si>
-  <si>
     <t>UNICEF</t>
   </si>
   <si>
@@ -164,9 +149,6 @@
     <t>Since we pulled this data earlier in the year, they've moved the data downloads to the Energy Institute (see link)</t>
   </si>
   <si>
-    <t>BP Statistical Review of World Energy</t>
-  </si>
-  <si>
     <t>Oil Production, Liquefied Natural Gas, All Biofuels, Renewable Power, Electricity, Natural Gas Production, Crude Oil, Oil Refining Capacity, Coal Production, Coal Production, Nuclear Energy, Rare Earth Mine Production, Graphite Mine Production, Cobalt Mine Production, Hydroelectricity, Lithium Mine Production</t>
   </si>
   <si>
@@ -509,9 +491,6 @@
     <t>TeleGeography Transport Networks Research Service</t>
   </si>
   <si>
-    <t>Any reference to TeleGeography’s Submarine Cable Map, URL, or any screencapture of the map is made available under the Creative Commons License: Attribution-ShareAlike 4.0 International (CC BY-SA 4.0). Head here for more information about using a TeleGeography map in your work. If you wish to license our data for commercial purposes, fill out of the form on this page.</t>
-  </si>
-  <si>
     <t>https://www2.telegeography.com/license-geocoded-map-data</t>
   </si>
   <si>
@@ -524,14 +503,86 @@
     <t>https://www.cmu.edu/epp/iecm/rubin/PDF%20files/2005/2005d%20Taylor%20et%20al,%20Tech%20Forecasting%20and%20Soc%20Chg%20(Jul).pdf</t>
   </si>
   <si>
-    <t>Taylor, Rubin, &amp; Hounshell - Control of SO2 emissions from power plants: A case of induced technological innovation in the U.S.</t>
+    <t>Margaret Taylor, Edward Rubin, &amp; David Hounshell - Control of SO2 emissions from power plants: A case of induced technological innovation in the U.S.</t>
+  </si>
+  <si>
+    <t>https://unstats.un.org/unsd/industry/Standards/LoIP.cshtml</t>
+  </si>
+  <si>
+    <t>http://data.un.org/</t>
+  </si>
+  <si>
+    <t>UN Industrial Commodity Statistics Database</t>
+  </si>
+  <si>
+    <t>United Nations Industrial Commodity Statistics Database, 1995–2016</t>
+  </si>
+  <si>
+    <t>http://data.un.org/Host.aspx?Content=UNdataUse</t>
+  </si>
+  <si>
+    <t>"All data and metadata provided on UNdata’s website are available free of charge and may be copied freely, duplicated and further distributed provided that UNdata is cited as the reference."</t>
+  </si>
+  <si>
+    <t>https://data.unicef.org/topic/child-health/immunization/</t>
+  </si>
+  <si>
+    <t>https://www.unicef.org/legal#terms-of-use</t>
+  </si>
+  <si>
+    <t>United Nations Childrens' Fund</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/space-exploration-satellites#introduction</t>
+  </si>
+  <si>
+    <t>https://www.unoosa.org/oosa/osoindex/search-ng.jspx</t>
+  </si>
+  <si>
+    <t>"All visualizations, data, and code produced by Our World in Data are completely open access under the Creative Commons BY license. You have the permission to use, distribute, and reproduce these in any medium, provided the source and authors are credited."</t>
+  </si>
+  <si>
+    <t>https://www.unoosa.org/oosa/en/aboutus/terms-of-use.html</t>
+  </si>
+  <si>
+    <t>United Nations Office for Outer Space Affairs</t>
+  </si>
+  <si>
+    <t>https://www.ers.usda.gov/data-products/adoption-of-genetically-engineered-crops-in-the-u-s/recent-trends-in-ge-adoption/</t>
+  </si>
+  <si>
+    <t>https://quickstats.nass.usda.gov/</t>
+  </si>
+  <si>
+    <t>U.S. Department of Agriculture Economic Research Service, U.S. Department of Agriculture National Agricultural Statistics Service</t>
+  </si>
+  <si>
+    <t>League of Nations</t>
+  </si>
+  <si>
+    <t>Statistical Yearbook of the League of Nations; FAOSTAT</t>
+  </si>
+  <si>
+    <t>Statistical yearbook of the League of Nations 1925, 1928, 1929, 1931, 1932, 1933, 1937, 1938. League of Nations, Geneva.</t>
+  </si>
+  <si>
+    <t>League of Nations Armaments Year-Book 1924, 1926, 1931, 2nd ed, Publications of the League of Nations. League of Nations, Geneva.</t>
+  </si>
+  <si>
+    <t>Data forwarded from Cameron who compiled and cleaned the data set, no link shared with me. See right for Cameron's citations.</t>
+  </si>
+  <si>
+    <t>BP/Energy Institute Statistical Review of World Energy</t>
+  </si>
+  <si>
+    <t>Sounds like we'd need to request permission to reproduce a map, but underlying data is fine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -546,12 +597,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -581,7 +626,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -589,13 +634,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -920,9 +968,6 @@
   <threadedComment ref="F3" dT="2023-07-14T16:45:23.47" personId="{F08A9914-1387-5C47-A83E-85EA1104172A}" id="{2A5FC089-E3C1-4445-80A0-DBAE3134CA3D}">
     <text>Didn’t see anything on BP website about data sharing but then discovered this on the new site they migrated the data to</text>
   </threadedComment>
-  <threadedComment ref="A9" dT="2023-07-14T20:48:14.52" personId="{F08A9914-1387-5C47-A83E-85EA1104172A}" id="{73CF9114-5B4D-5A42-B321-0365E5C573F2}">
-    <text>Data from Cameron - confirm proper citation, link, data sharing permissions</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -930,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595A7C26-A39A-5B4B-B6C8-1799FE92A08F}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,22 +993,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -971,19 +1016,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="102" x14ac:dyDescent="0.2">
@@ -991,69 +1036,69 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>136</v>
+        <v>30</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4"/>
       <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
@@ -1061,521 +1106,594 @@
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="2" t="s">
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="D9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:8" ht="170" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="C21"/>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="136" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="D24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C23" t="s">
-        <v>117</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="2" t="s">
+      <c r="C26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="I26" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="119" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C25" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="153" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="D30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="119" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="102" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.2">
@@ -1687,14 +1805,25 @@
     <hyperlink ref="G10" r:id="rId32" xr:uid="{B517F13B-E112-554B-A943-428B872A4A9B}"/>
     <hyperlink ref="H10" r:id="rId33" xr:uid="{B5FDD58A-C4C3-B84E-9DFE-34D0D23DABEB}"/>
     <hyperlink ref="G25" r:id="rId34" xr:uid="{6CC7EDB8-92D3-DB4C-B60F-B6DBD84A72BC}"/>
-    <hyperlink ref="G30" r:id="rId35" xr:uid="{AE92B8CA-D9BA-6542-8C01-425D943C7228}"/>
-    <hyperlink ref="H30" r:id="rId36" xr:uid="{DE9FF7DE-1D4E-1545-B4A8-14B07D2AC6E8}"/>
-    <hyperlink ref="G24" r:id="rId37" xr:uid="{B12CE0FD-F486-334B-B580-186B6D8DCA14}"/>
-    <hyperlink ref="H24" r:id="rId38" xr:uid="{8FCD3F3A-602C-214F-A527-DF75F61F90F6}"/>
-    <hyperlink ref="G23" r:id="rId39" xr:uid="{661B8356-E0BC-2446-8BC9-F6952A697AAD}"/>
-    <hyperlink ref="H23" r:id="rId40" xr:uid="{91C5D3AE-76F8-264F-A7B6-3076BFF26A21}"/>
+    <hyperlink ref="H30" r:id="rId35" xr:uid="{DE9FF7DE-1D4E-1545-B4A8-14B07D2AC6E8}"/>
+    <hyperlink ref="G24" r:id="rId36" xr:uid="{B12CE0FD-F486-334B-B580-186B6D8DCA14}"/>
+    <hyperlink ref="H24" r:id="rId37" xr:uid="{8FCD3F3A-602C-214F-A527-DF75F61F90F6}"/>
+    <hyperlink ref="G23" r:id="rId38" xr:uid="{661B8356-E0BC-2446-8BC9-F6952A697AAD}"/>
+    <hyperlink ref="H23" r:id="rId39" xr:uid="{91C5D3AE-76F8-264F-A7B6-3076BFF26A21}"/>
+    <hyperlink ref="G26" r:id="rId40" xr:uid="{3A00CE55-A9BC-D04F-BB5E-556A6BAC2510}"/>
+    <hyperlink ref="H26" r:id="rId41" xr:uid="{CCDD349A-CBA6-B14D-BACA-A51C316A3212}"/>
+    <hyperlink ref="I26" r:id="rId42" xr:uid="{5B01B7BD-58AE-544A-83D7-DB848D4F0EA2}"/>
+    <hyperlink ref="G27" r:id="rId43" xr:uid="{D0730FC0-F7F5-4E41-909F-E0A04721A00B}"/>
+    <hyperlink ref="H27" r:id="rId44" location="terms-of-use" xr:uid="{92D39488-0564-9C40-AAE4-6696AA74FC8C}"/>
+    <hyperlink ref="G28" r:id="rId45" location="introduction" xr:uid="{B99FF5DD-B7BC-2749-834C-053360D18C83}"/>
+    <hyperlink ref="H28" r:id="rId46" xr:uid="{357A09C1-39D7-9545-85B7-EF02BB7AFD97}"/>
+    <hyperlink ref="I28" r:id="rId47" xr:uid="{E258DBF6-A8E9-C041-8377-28A31CF8031A}"/>
+    <hyperlink ref="G30" r:id="rId48" xr:uid="{AE92B8CA-D9BA-6542-8C01-425D943C7228}"/>
+    <hyperlink ref="G29" r:id="rId49" xr:uid="{8E0D6E19-2E2C-6F42-BA3F-2C8939288191}"/>
+    <hyperlink ref="H29" r:id="rId50" xr:uid="{B0986F9E-4647-6E43-A940-43BCFEC78E2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId41"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId51"/>
 </worksheet>
 </file>
--- a/data sources.xlsx
+++ b/data sources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F3B01BF-98FE-CF4D-90C7-5B6BBD9D551E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9BBE3E-D684-D94B-BACB-2C3F095D6F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16260" xr2:uid="{DD058FC8-4C87-F249-980D-CB715E10A09C}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="179">
   <si>
     <t>Short Name</t>
   </si>
@@ -576,13 +576,78 @@
   </si>
   <si>
     <t>Sounds like we'd need to request permission to reproduce a map, but underlying data is fine</t>
+  </si>
+  <si>
+    <t>https://dataverse.harvard.edu/dataset.xhtml?persistentId=doi:10.7910/DVN/9FEJ7C</t>
+  </si>
+  <si>
+    <t>Ziegler &amp; Trancik</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <r>
+      <t>Ziegler, M. S. &amp; Trancik, J. E. Re-Examining Rates of Lithium-Ion Battery Technology Improvement and Cost Decline. Energy Environ</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sci</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> 2021, 14, 1635–1651.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DOI: 10.1039/D0EE02681F</t>
+    </r>
+  </si>
+  <si>
+    <t>https://pubs.rsc.org/en/content/articlelanding/2021/ee/d0ee02681f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -598,8 +663,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,6 +687,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -637,13 +721,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -975,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595A7C26-A39A-5B4B-B6C8-1799FE92A08F}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1148,52 +1235,52 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>169</v>
       </c>
     </row>
@@ -1464,7 +1551,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1486,26 +1573,26 @@
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" t="s">
         <v>115</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1530,7 +1617,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="153" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1556,7 +1643,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1579,7 +1666,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="85" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1605,7 +1692,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="68" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1696,41 +1783,62 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C33"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C33" s="6"/>
+      <c r="D33" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C38"/>
       <c r="F38"/>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C39"/>
       <c r="F39"/>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C41"/>
       <c r="F41"/>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C42"/>
       <c r="F42"/>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43"/>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C44"/>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C45"/>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C46"/>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C47"/>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C48"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">
@@ -1821,9 +1929,11 @@
     <hyperlink ref="G30" r:id="rId48" xr:uid="{AE92B8CA-D9BA-6542-8C01-425D943C7228}"/>
     <hyperlink ref="G29" r:id="rId49" xr:uid="{8E0D6E19-2E2C-6F42-BA3F-2C8939288191}"/>
     <hyperlink ref="H29" r:id="rId50" xr:uid="{B0986F9E-4647-6E43-A940-43BCFEC78E2D}"/>
+    <hyperlink ref="G33" r:id="rId51" xr:uid="{FA0EC5DA-FDB4-F745-AEE5-F78B377552B3}"/>
+    <hyperlink ref="H33" r:id="rId52" xr:uid="{47D7550B-20FC-C546-B1FD-352AEF7D5F8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId51"/>
+  <legacyDrawing r:id="rId53"/>
 </worksheet>
 </file>
--- a/data sources.xlsx
+++ b/data sources.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9BBE3E-D684-D94B-BACB-2C3F095D6F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D954876-B732-8C46-83F5-71119B8E212D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16260" xr2:uid="{DD058FC8-4C87-F249-980D-CB715E10A09C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595A7C26-A39A-5B4B-B6C8-1799FE92A08F}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data sources.xlsx
+++ b/data sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D954876-B732-8C46-83F5-71119B8E212D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5202565D-B989-F546-8DD8-5CF0D1194AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16260" xr2:uid="{DD058FC8-4C87-F249-980D-CB715E10A09C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{DD058FC8-4C87-F249-980D-CB715E10A09C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="181">
   <si>
     <t>Short Name</t>
   </si>
@@ -641,6 +641,12 @@
   </si>
   <si>
     <t>https://pubs.rsc.org/en/content/articlelanding/2021/ee/d0ee02681f</t>
+  </si>
+  <si>
+    <t>Schmidt</t>
+  </si>
+  <si>
+    <t>https://figshare.com/articles/dataset/Experience_curve_data_for_energy_storage_technologies/21937529</t>
   </si>
 </sst>
 </file>
@@ -1062,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595A7C26-A39A-5B4B-B6C8-1799FE92A08F}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1801,8 +1807,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B34"/>
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B35"/>

--- a/data sources.xlsx
+++ b/data sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5202565D-B989-F546-8DD8-5CF0D1194AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DD57C5-E1F4-9243-A213-D6DA550ECC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{DD058FC8-4C87-F249-980D-CB715E10A09C}"/>
+    <workbookView xWindow="6160" yWindow="500" windowWidth="22640" windowHeight="16260" xr2:uid="{DD058FC8-4C87-F249-980D-CB715E10A09C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="183">
   <si>
     <t>Short Name</t>
   </si>
@@ -587,59 +587,6 @@
     <t>N</t>
   </si>
   <si>
-    <r>
-      <t>Ziegler, M. S. &amp; Trancik, J. E. Re-Examining Rates of Lithium-Ion Battery Technology Improvement and Cost Decline. Energy Environ</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Sci</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> 2021, 14, 1635–1651.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> DOI: 10.1039/D0EE02681F</t>
-    </r>
-  </si>
-  <si>
     <t>https://pubs.rsc.org/en/content/articlelanding/2021/ee/d0ee02681f</t>
   </si>
   <si>
@@ -647,13 +594,22 @@
   </si>
   <si>
     <t>https://figshare.com/articles/dataset/Experience_curve_data_for_energy_storage_technologies/21937529</t>
+  </si>
+  <si>
+    <t>NASA</t>
+  </si>
+  <si>
+    <t>https://ttu-ir.tdl.org/bitstream/handle/2346/74082/ICES_2018_81.pdf</t>
+  </si>
+  <si>
+    <t>Ziegler, M. S. &amp; Trancik, J. E. Re-Examining Rates of Lithium-Ion Battery Technology Improvement and Cost Decline. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -668,19 +624,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1069,7 +1012,7 @@
   <dimension ref="A1:I59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1789,12 +1732,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="5" t="s">
@@ -1804,19 +1747,25 @@
         <v>174</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G34" s="7" t="s">
+    </row>
+    <row r="35" spans="1:8" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B35"/>
+      <c r="B35" s="6"/>
+      <c r="G35" s="7" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C38"/>
@@ -1942,9 +1891,10 @@
     <hyperlink ref="H29" r:id="rId50" xr:uid="{B0986F9E-4647-6E43-A940-43BCFEC78E2D}"/>
     <hyperlink ref="G33" r:id="rId51" xr:uid="{FA0EC5DA-FDB4-F745-AEE5-F78B377552B3}"/>
     <hyperlink ref="H33" r:id="rId52" xr:uid="{47D7550B-20FC-C546-B1FD-352AEF7D5F8E}"/>
+    <hyperlink ref="G35" r:id="rId53" xr:uid="{4D0CAFB3-2B25-A842-8E9D-7EF242B3B686}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId53"/>
+  <legacyDrawing r:id="rId54"/>
 </worksheet>
 </file>
--- a/data sources.xlsx
+++ b/data sources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DD57C5-E1F4-9243-A213-D6DA550ECC02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6050C0C-E60F-8B47-9280-47DD9C6235C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="500" windowWidth="22640" windowHeight="16260" xr2:uid="{DD058FC8-4C87-F249-980D-CB715E10A09C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{DD058FC8-4C87-F249-980D-CB715E10A09C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="205">
   <si>
     <t>Short Name</t>
   </si>
@@ -590,9 +590,6 @@
     <t>https://pubs.rsc.org/en/content/articlelanding/2021/ee/d0ee02681f</t>
   </si>
   <si>
-    <t>Schmidt</t>
-  </si>
-  <si>
     <t>https://figshare.com/articles/dataset/Experience_curve_data_for_energy_storage_technologies/21937529</t>
   </si>
   <si>
@@ -603,6 +600,75 @@
   </si>
   <si>
     <t>Ziegler, M. S. &amp; Trancik, J. E. Re-Examining Rates of Lithium-Ion Battery Technology Improvement and Cost Decline. </t>
+  </si>
+  <si>
+    <t>"Second, and this is what we already asked, the data should not be rehosted (e.g., the xlsx files should not be put on another website). Instead, please direct your audience and colleagues to the dataverse so that they can download the data directly and receive any updates we provide." - Ziegler via email</t>
+  </si>
+  <si>
+    <t>Harry W. Jones, "The Recent Large Reduction in Space Launch Cost," NASA Ames Research Center, 48th International Conference on Environmental Systems</t>
+  </si>
+  <si>
+    <t>Schmidt &amp; Staffell</t>
+  </si>
+  <si>
+    <t>Oliver Schmidt &amp; Iain Staffell, "Monetizing Energy Storage - A toolkit to assess future cost and value," Oxford University Press, June 2023. </t>
+  </si>
+  <si>
+    <t>https://pure.iiasa.ac.at/id/eprint/10749/1/IR-13-008.pdf</t>
+  </si>
+  <si>
+    <t>Healey</t>
+  </si>
+  <si>
+    <t>Digitalized from figures 16-18</t>
+  </si>
+  <si>
+    <t>Healey, S. (2013). Scaling and Cost Dynamics of Pollution Control Technologies: Some Historical Examples. Laxenburg, Austria: Interim Report IR-13-008, International Institute for Applied Systems Analysis.</t>
+  </si>
+  <si>
+    <t>Lithium-ion Battery Storage</t>
+  </si>
+  <si>
+    <t>Flow Battery Storage, Lead-Acid Battery Storage, Nickel-Based Battery Storage, Pumped Hydro Storage, Sodium-Based Battery Storage</t>
+  </si>
+  <si>
+    <t>M. Weiss, H.M. Junginger, M.K. Patel, Learning energy efficiency — experience curves for household appliances and space heating, cooling, and lighting technologies, Report NWS-E-2008-26, Utrecht University, the Netherlands, 2008.</t>
+  </si>
+  <si>
+    <t>from table 15 (page 116)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ansar et al. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weiss et al. </t>
+  </si>
+  <si>
+    <t>Should we build more large dams? The actual costs of hydropower megaproject development</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.enpol.2013.10.069</t>
+  </si>
+  <si>
+    <t>Compact Fluorescent Light Bulbs</t>
+  </si>
+  <si>
+    <t>Hydropower</t>
+  </si>
+  <si>
+    <t>Wetterstrand KA. DNA Sequencing Costs: Data from the NHGRI Genome Sequencing Program</t>
+  </si>
+  <si>
+    <t>www.genome.gov/sequencingcostsdata</t>
+  </si>
+  <si>
+    <t>DNA Sequencing</t>
+  </si>
+  <si>
+    <t>NIH</t>
+  </si>
+  <si>
+    <t>https://dspace.library.uu.nl/bitstream/handle/1874/32937/NWS-E-2008-112.pdf?sequence=1</t>
   </si>
 </sst>
 </file>
@@ -659,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -680,6 +746,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1011,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595A7C26-A39A-5B4B-B6C8-1799FE92A08F}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1732,17 +1803,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="5" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="5" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" s="6"/>
+        <v>181</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>190</v>
+      </c>
       <c r="D33" s="5" t="s">
         <v>176</v>
       </c>
+      <c r="E33" s="5" t="s">
+        <v>182</v>
+      </c>
       <c r="G33" s="7" t="s">
         <v>174</v>
       </c>
@@ -1750,30 +1826,133 @@
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G34" s="7" t="s">
+    </row>
+    <row r="35" spans="1:8" ht="85" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
+      <c r="B35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="G35" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C38"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C39"/>
-      <c r="F39"/>
+    </row>
+    <row r="36" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="9" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="4" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C41"/>
@@ -1892,9 +2071,15 @@
     <hyperlink ref="G33" r:id="rId51" xr:uid="{FA0EC5DA-FDB4-F745-AEE5-F78B377552B3}"/>
     <hyperlink ref="H33" r:id="rId52" xr:uid="{47D7550B-20FC-C546-B1FD-352AEF7D5F8E}"/>
     <hyperlink ref="G35" r:id="rId53" xr:uid="{4D0CAFB3-2B25-A842-8E9D-7EF242B3B686}"/>
+    <hyperlink ref="G34" r:id="rId54" xr:uid="{B2DD3BB1-9523-7544-AB2D-DBBB2797533B}"/>
+    <hyperlink ref="G36" r:id="rId55" xr:uid="{A4623909-3EB2-7943-8CC4-6947C0850C83}"/>
+    <hyperlink ref="G38" r:id="rId56" xr:uid="{20DB0EBB-0567-6743-9CD7-7629EC60D3C8}"/>
+    <hyperlink ref="B39" r:id="rId57" display="https://www.genome.gov/sequencingcostsdata" xr:uid="{19D915C4-B6E8-994A-B5F2-999C588C7267}"/>
+    <hyperlink ref="G39" r:id="rId58" xr:uid="{B62A1E56-207C-AE4E-BEC1-B940F2544F8D}"/>
+    <hyperlink ref="G37" r:id="rId59" xr:uid="{A3D13CD9-0029-6C41-B131-119FBEB8DCA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId54"/>
+  <legacyDrawing r:id="rId60"/>
 </worksheet>
 </file>
--- a/data sources.xlsx
+++ b/data sources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6050C0C-E60F-8B47-9280-47DD9C6235C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAF7277-859D-794A-B867-F6759DBB8965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{DD058FC8-4C87-F249-980D-CB715E10A09C}"/>
   </bookViews>
@@ -725,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -747,10 +747,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1082,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595A7C26-A39A-5B4B-B6C8-1799FE92A08F}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -1889,67 +1885,67 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="9" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:8" ht="119" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="1" t="s">
         <v>193</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" t="s">
         <v>199</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38"/>
       <c r="G38" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="9" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" t="s">
         <v>202</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39"/>
       <c r="G39" s="4" t="s">
         <v>201</v>
       </c>
